--- a/Assets/KDH/Scripts/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDH/Scripts/GuideLine/GuideLineDB.xlsx
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서버실 열쇠를 획득했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가스실에 폭탄을 설치하라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +120,10 @@
   </si>
   <si>
     <t>VIP 구역을 들어갈 방법을 찾아보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버실로 가서 전기실을 해킹하라.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -587,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -603,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -611,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -643,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -667,7 +667,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -675,7 +675,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,7 +683,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/KDH/Scripts/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDH/Scripts/GuideLine/GuideLineDB.xlsx
@@ -107,14 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VIP 구역 입장 번호가 00XX라 적혀 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP 구역 입장 번호가 XX00라 적혀 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>밀수 장부를 획득했다. 서둘러 탈출하자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +116,14 @@
   </si>
   <si>
     <t>서버실로 가서 전기실을 해킹하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP 구역 입장 번호가 XX23이라 적혀 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP 구역 입장 번호가 05XX이라 적혀 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -675,7 +675,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,7 +683,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/KDH/Scripts/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDH/Scripts/GuideLine/GuideLineDB.xlsx
@@ -29,9 +29,6 @@
     <t xml:space="preserve">지금은 숨을 수 없다. </t>
   </si>
   <si>
-    <t xml:space="preserve">아직 사용할 수 없다. </t>
-  </si>
-  <si>
     <t>열쇠를 획득했다.</t>
   </si>
   <si>
@@ -124,6 +121,10 @@
   </si>
   <si>
     <t>VIP 구역 입장 번호가 05XX이라 적혀 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지금은 사용할 수 없다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -499,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -515,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -523,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -531,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -563,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -571,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -587,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -595,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -603,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -611,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -627,7 +628,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +636,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -643,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -651,7 +652,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +660,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -667,7 +668,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -675,7 +676,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,7 +684,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -691,7 +692,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -699,7 +700,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
